--- a/data/processed/applicants_semester/2009_2.xlsx
+++ b/data/processed/applicants_semester/2009_2.xlsx
@@ -424,17 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>names</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>score</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>batches</t>
+          <t>batche</t>
         </is>
       </c>
     </row>

--- a/data/processed/applicants_semester/2009_2.xlsx
+++ b/data/processed/applicants_semester/2009_2.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>batche</t>
+          <t>batch</t>
         </is>
       </c>
     </row>
